--- a/LEADto opportunity (1).xlsx
+++ b/LEADto opportunity (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus 40\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A82D43DB-2026-4F25-8857-0AF8F8B517F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCD2D76-E1BE-499C-8C43-5CF5E482CF32}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -708,7 +708,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
